--- a/Alpha/WinClient/Shell/Templates/BuildingConsumptionImport.xlsx
+++ b/Alpha/WinClient/Shell/Templates/BuildingConsumptionImport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shared\Aurora\Жилищные услуги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\AuroraGit\Alpha\WinClient\Shell\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C443F637-9ADE-4072-8659-866487F7FCEA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329DF6A0-29A7-4685-9E0C-81DF8AB7BDE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{3B7B57AD-C509-44BC-94C9-4CFE781CBFA0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -117,14 +117,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,24 +440,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F87B31-9F6E-4E51-91EC-064BF15E9F1A}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="17" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -479,71 +479,67 @@
         <v>5</v>
       </c>
       <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
